--- a/guide/sdr-causeOfDeath-PlaceOfInjury-extension.xlsx
+++ b/guide/sdr-causeOfDeath-PlaceOfInjury-extension.xlsx
@@ -137,7 +137,7 @@
     <t>SDR PlaceOfInjury Extension</t>
   </si>
   <si>
-    <t>Place of injury, e.g. decedent's home, restaurant, wooded area</t>
+    <t>Description of the place of injury, e.g. decedent's home, restaurant, wooded area</t>
   </si>
   <si>
     <t>1</t>
